--- a/group/outputs/單位版回填單位.xlsx
+++ b/group/outputs/單位版回填單位.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naichen\Documents\GitHub\stu00608.github.io\PartTime_PythonAnalysis\group\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="水利署回填機構" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="台灣電力股份有限公司回填機構" sheetId="3" r:id="rId3"/>
     <sheet name="其他回填機構" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -540,12 +535,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -553,15 +548,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -607,23 +595,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -665,7 +645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,10 +677,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +711,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,19 +886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -939,7 +912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -950,7 +923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -961,7 +934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -972,7 +945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -983,7 +956,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -994,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1005,7 +978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1016,7 +989,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1027,7 +1000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1039,20 +1012,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1071,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1082,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1093,7 +1065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1104,7 +1076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1115,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1126,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1137,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1148,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1159,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1181,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1192,7 +1164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1203,7 +1175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1214,7 +1186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1225,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1236,7 +1208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1247,7 +1219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1258,7 +1230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1269,7 +1241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1280,7 +1252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1291,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1302,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1313,7 +1285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1324,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1335,7 +1307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1346,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1357,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1368,7 +1340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1379,7 +1351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1390,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1401,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1412,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1423,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1434,7 +1406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1445,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1456,7 +1428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1467,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1478,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1489,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1500,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1511,7 +1483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1522,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1533,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1544,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1555,7 +1527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1566,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -1577,7 +1549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>51</v>
       </c>
@@ -1588,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -1599,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -1610,7 +1582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -1621,7 +1593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -1632,7 +1604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -1643,7 +1615,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -1654,7 +1626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -1665,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>61</v>
       </c>
@@ -1676,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>63</v>
       </c>
@@ -1687,7 +1659,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>64</v>
       </c>
@@ -1698,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>66</v>
       </c>
@@ -1709,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>68</v>
       </c>
@@ -1720,7 +1692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>69</v>
       </c>
@@ -1731,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>70</v>
       </c>
@@ -1742,7 +1714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>71</v>
       </c>
@@ -1753,7 +1725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>73</v>
       </c>
@@ -1764,7 +1736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>74</v>
       </c>
@@ -1775,7 +1747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>75</v>
       </c>
@@ -1786,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>77</v>
       </c>
@@ -1797,7 +1769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>78</v>
       </c>
@@ -1808,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>79</v>
       </c>
@@ -1819,7 +1791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>80</v>
       </c>
@@ -1830,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>81</v>
       </c>
@@ -1841,7 +1813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>82</v>
       </c>
@@ -1852,7 +1824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>83</v>
       </c>
@@ -1863,7 +1835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>84</v>
       </c>
@@ -1874,7 +1846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>85</v>
       </c>
@@ -1885,7 +1857,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>88</v>
       </c>
@@ -1896,7 +1868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>91</v>
       </c>
@@ -1907,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>92</v>
       </c>
@@ -1918,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>93</v>
       </c>
@@ -1929,7 +1901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>94</v>
       </c>
@@ -1940,7 +1912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>95</v>
       </c>
@@ -1951,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>96</v>
       </c>
@@ -1962,7 +1934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>97</v>
       </c>
@@ -1973,7 +1945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>98</v>
       </c>
@@ -1984,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>101</v>
       </c>
@@ -1995,7 +1967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>102</v>
       </c>
@@ -2006,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>104</v>
       </c>
@@ -2017,7 +1989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>106</v>
       </c>
@@ -2028,7 +2000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>107</v>
       </c>
@@ -2039,7 +2011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>108</v>
       </c>
@@ -2050,7 +2022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>112</v>
       </c>
@@ -2061,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>113</v>
       </c>
@@ -2072,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>114</v>
       </c>
@@ -2083,7 +2055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>115</v>
       </c>
@@ -2094,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>116</v>
       </c>
@@ -2106,20 +2078,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2138,7 +2109,7 @@
         <v>27532</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2149,7 +2120,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2160,7 +2131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2171,7 +2142,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2182,7 +2153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2193,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2205,25 +2176,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2242,7 +2207,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2253,7 +2218,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2264,7 +2229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2275,7 +2240,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2286,7 +2251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2297,7 +2262,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2308,7 +2273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2319,7 +2284,7 @@
         <v>18995</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2330,7 +2295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2341,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2352,7 +2317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2363,7 +2328,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2374,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2385,7 +2350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2396,7 +2361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2407,7 +2372,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2418,7 +2383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2429,7 +2394,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2440,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2451,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2462,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2473,7 +2438,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2484,7 +2449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -2495,7 +2460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -2506,7 +2471,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -2517,7 +2482,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -2528,7 +2493,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -2539,7 +2504,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -2550,7 +2515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -2561,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -2572,7 +2537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -2583,7 +2548,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -2594,7 +2559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -2605,7 +2570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -2616,7 +2581,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2627,7 +2592,7 @@
         <v>21503</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2638,7 +2603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -2649,7 +2614,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>42</v>
       </c>
@@ -2660,7 +2625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43</v>
       </c>
@@ -2671,7 +2636,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>44</v>
       </c>
@@ -2682,7 +2647,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>45</v>
       </c>
@@ -2693,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>46</v>
       </c>
@@ -2704,7 +2669,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>47</v>
       </c>
@@ -2715,7 +2680,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>48</v>
       </c>
@@ -2726,7 +2691,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -2737,7 +2702,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -2748,7 +2713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>51</v>
       </c>
@@ -2759,7 +2724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -2770,7 +2735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -2781,7 +2746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -2792,7 +2757,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -2803,7 +2768,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -2814,7 +2779,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -2825,7 +2790,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>58</v>
       </c>
@@ -2836,7 +2801,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -2847,7 +2812,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -2859,7 +2824,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>